--- a/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
@@ -43,27 +43,27 @@
     <t>5e0adc8f4cac6834756db412</t>
   </si>
   <si>
+    <t>60ba8ba51a5e0a105396888a</t>
+  </si>
+  <si>
     <t>60778ed0fde3e9c3a96f1d11</t>
   </si>
   <si>
-    <t>60ba8ba51a5e0a105396888a</t>
-  </si>
-  <si>
     <t>5e706891c396cc64388ef760</t>
   </si>
   <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
+    <t>5e35d91ea42bce592e996843</t>
+  </si>
+  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
-  </si>
-  <si>
-    <t>5e35d91ea42bce592e996843</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
@@ -79,25 +79,25 @@
     <t>Mary</t>
   </si>
   <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
     <t>Melissa</t>
   </si>
   <si>
-    <t>Alfredo</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
     <t>Valeria</t>
-  </si>
-  <si>
-    <t>Katherine</t>
-  </si>
-  <si>
-    <t>Sergio</t>
   </si>
   <si>
     <t>Josue</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>15.43818142863585</v>
+        <v>15.02328293437414</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>11.23501533498133</v>
+        <v>11.12005548300506</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -568,10 +568,10 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>10.30985422106445</v>
+        <v>10.3560449567461</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -594,10 +594,10 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>10.19954897833762</v>
+        <v>10.15590669353794</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>9.162027534945004</v>
+        <v>9.075645813370125</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>7.452131028775719</v>
+        <v>7.229575176107406</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>5.443032210510179</v>
+        <v>5.144726965691964</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -698,10 +698,10 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>5.136008198154887</v>
+        <v>5.106254872490608</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -724,10 +724,10 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>5.00567048284817</v>
+        <v>5.051234491524045</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.23696972782974</v>
+        <v>4.078136080597864</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>3.488769134001832</v>
+        <v>3.427904729701768</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>3.260736716689629</v>
+        <v>3.301880844181574</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
@@ -55,24 +55,24 @@
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>5f0142aa1eb1e528e7abce50</t>
+  </si>
+  <si>
     <t>6024c18b094ac71dd93f4f5a</t>
   </si>
   <si>
     <t>5e35d91ea42bce592e996843</t>
   </si>
   <si>
-    <t>5f0142aa1eb1e528e7abce50</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
+    <t>5f5ea8227fa75676f56f9276</t>
+  </si>
+  <si>
     <t>5e58b3e415b8d40b5e1dabf1</t>
   </si>
   <si>
-    <t>5f5ea8227fa75676f56f9276</t>
-  </si>
-  <si>
     <t>Yonifredy</t>
   </si>
   <si>
@@ -91,22 +91,22 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>Valeria</t>
+  </si>
+  <si>
     <t>Katherine</t>
   </si>
   <si>
     <t>Sergio</t>
   </si>
   <si>
-    <t>Valeria</t>
-  </si>
-  <si>
     <t>Josue</t>
   </si>
   <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t>Cristian</t>
-  </si>
-  <si>
-    <t>Carlos</t>
   </si>
   <si>
     <t>male</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>15.02328293437414</v>
+        <v>15.27723972558881</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>11.12005548300506</v>
+        <v>11.39595057741476</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -571,7 +571,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>10.3560449567461</v>
+        <v>10.31711759769929</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>10.15590669353794</v>
+        <v>10.3121989301421</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>9.075645813370125</v>
+        <v>9.088823182096167</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>7.229575176107406</v>
+        <v>7.098664369738172</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>5.144726965691964</v>
+        <v>5.157963932580735</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -698,10 +698,10 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>5.106254872490608</v>
+        <v>5.149789558972145</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -724,10 +724,10 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>5.051234491524045</v>
+        <v>5.03927231484428</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.078136080597864</v>
+        <v>4.019746017647258</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -779,7 +779,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>3.427904729701768</v>
+        <v>3.287064503394289</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -805,7 +805,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>3.301880844181574</v>
+        <v>3.03661984727283</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
@@ -43,24 +43,24 @@
     <t>5e0adc8f4cac6834756db412</t>
   </si>
   <si>
+    <t>60778ed0fde3e9c3a96f1d11</t>
+  </si>
+  <si>
     <t>60ba8ba51a5e0a105396888a</t>
   </si>
   <si>
-    <t>60778ed0fde3e9c3a96f1d11</t>
-  </si>
-  <si>
     <t>5e706891c396cc64388ef760</t>
   </si>
   <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
-  </si>
-  <si>
     <t>5e35d91ea42bce592e996843</t>
   </si>
   <si>
@@ -79,22 +79,22 @@
     <t>Mary</t>
   </si>
   <si>
+    <t>Melissa</t>
+  </si>
+  <si>
     <t>Alfredo</t>
   </si>
   <si>
-    <t>Melissa</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
     <t>Juan</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t>Valeria</t>
-  </si>
-  <si>
-    <t>Katherine</t>
   </si>
   <si>
     <t>Sergio</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>15.27723972558881</v>
+        <v>15.4707565882647</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>11.39595057741476</v>
+        <v>11.24716022619973</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -568,10 +568,10 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>10.31711759769929</v>
+        <v>10.28396858577988</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -594,10 +594,10 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>10.3121989301421</v>
+        <v>10.17922288895593</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>9.088823182096167</v>
+        <v>9.11564123155263</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>7.098664369738172</v>
+        <v>7.090080371342193</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>5.157963932580735</v>
+        <v>5.492612310008454</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -701,7 +701,7 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>5.149789558972145</v>
+        <v>5.467819815978743</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -727,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.03927231484428</v>
+        <v>5.255963789825259</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.019746017647258</v>
+        <v>4.443507100185125</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -779,7 +779,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>3.287064503394289</v>
+        <v>3.499128519851419</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -805,7 +805,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>3.03661984727283</v>
+        <v>3.153071154622522</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
@@ -58,21 +58,21 @@
     <t>6024c18b094ac71dd93f4f5a</t>
   </si>
   <si>
+    <t>5e35d91ea42bce592e996843</t>
+  </si>
+  <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>5e35d91ea42bce592e996843</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
+    <t>5e58b3e415b8d40b5e1dabf1</t>
+  </si>
+  <si>
     <t>5f5ea8227fa75676f56f9276</t>
   </si>
   <si>
-    <t>5e58b3e415b8d40b5e1dabf1</t>
-  </si>
-  <si>
     <t>Yonifredy</t>
   </si>
   <si>
@@ -94,19 +94,19 @@
     <t>Katherine</t>
   </si>
   <si>
+    <t>Sergio</t>
+  </si>
+  <si>
     <t>Valeria</t>
   </si>
   <si>
-    <t>Sergio</t>
-  </si>
-  <si>
     <t>Josue</t>
   </si>
   <si>
+    <t>Cristian</t>
+  </si>
+  <si>
     <t>Carlos</t>
-  </si>
-  <si>
-    <t>Cristian</t>
   </si>
   <si>
     <t>male</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>15.4707565882647</v>
+        <v>15.06243723636431</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>11.24716022619973</v>
+        <v>11.11821323711153</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -571,7 +571,7 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>10.28396858577988</v>
+        <v>10.39963322479619</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -597,7 +597,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>10.17922288895593</v>
+        <v>10.36897075700516</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>9.11564123155263</v>
+        <v>9.024018483952517</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>7.090080371342193</v>
+        <v>7.460850761300989</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -675,7 +675,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>5.492612310008454</v>
+        <v>5.43416801027872</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -698,10 +698,10 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>5.467819815978743</v>
+        <v>5.41159165889617</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -724,10 +724,10 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>5.255963789825259</v>
+        <v>5.26350506955602</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.443507100185125</v>
+        <v>4.337099675533884</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -779,7 +779,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>3.499128519851419</v>
+        <v>3.186900434483333</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -805,7 +805,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>3.153071154622522</v>
+        <v>3.111826274599989</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_hispanic.xlsx
@@ -55,24 +55,24 @@
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
+    <t>6024c18b094ac71dd93f4f5a</t>
+  </si>
+  <si>
     <t>5e35d91ea42bce592e996843</t>
   </si>
   <si>
     <t>5f0142aa1eb1e528e7abce50</t>
   </si>
   <si>
-    <t>6024c18b094ac71dd93f4f5a</t>
-  </si>
-  <si>
     <t>60743a8fd12c5ffa72972fd5</t>
   </si>
   <si>
+    <t>5e58b3e415b8d40b5e1dabf1</t>
+  </si>
+  <si>
     <t>5f5ea8227fa75676f56f9276</t>
   </si>
   <si>
-    <t>5e58b3e415b8d40b5e1dabf1</t>
-  </si>
-  <si>
     <t>Yonifredy</t>
   </si>
   <si>
@@ -91,22 +91,22 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t>Sergio</t>
   </si>
   <si>
     <t>Valeria</t>
   </si>
   <si>
-    <t>Katherine</t>
-  </si>
-  <si>
     <t>Josue</t>
   </si>
   <si>
+    <t>Cristian</t>
+  </si>
+  <si>
     <t>Carlos</t>
-  </si>
-  <si>
-    <t>Cristian</t>
   </si>
   <si>
     <t>male</t>
@@ -519,7 +519,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>15.04266715042745</v>
+        <v>15.43697013441807</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>11.36325328331444</v>
+        <v>11.09358157116992</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -571,7 +571,7 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>10.28192797181401</v>
+        <v>10.23060859044444</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -597,7 +597,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>10.16425277708626</v>
+        <v>10.0348221501642</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>9.232871859698882</v>
+        <v>9.495077113351307</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -649,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>7.274550005288805</v>
+        <v>7.271537858766404</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -672,10 +672,10 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>5.284095815019352</v>
+        <v>5.429885939330042</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -698,10 +698,10 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>5.117007198824119</v>
+        <v>5.174776003077755</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -727,7 +727,7 @@
         <v>32</v>
       </c>
       <c r="F10">
-        <v>5.092057689109181</v>
+        <v>5.109387050937287</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -753,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>4.217062184173634</v>
+        <v>4.066289137297956</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -779,7 +779,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>3.09553860113911</v>
+        <v>3.287022510508467</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -805,7 +805,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>3.080972562626874</v>
+        <v>3.121599655266171</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
